--- a/experiment/classify/web-list-calc.xlsx
+++ b/experiment/classify/web-list-calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuya-inagaki/Documents/workspace/research/experiment/classify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F41B06-0277-5945-B8D3-45DFBE4EB0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1876D92A-A7C4-F941-A1C9-1616628A3DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="845">
   <si>
     <t>id</t>
   </si>
@@ -2560,6 +2560,14 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ave_fixation_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ave_fixation_y</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2909,7 +2917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3021,15 +3029,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3162,20 +3161,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3551,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T271"/>
+  <dimension ref="A1:U271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3563,12 +3559,14 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.1640625" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3587,10 +3585,16 @@
       <c r="F1" t="s">
         <v>842</v>
       </c>
+      <c r="H1" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1" t="s">
+        <v>844</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3608,6 +3612,12 @@
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>952.04008438818505</v>
+      </c>
+      <c r="I2">
+        <v>444.68143459915598</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3617,9 +3627,9 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3638,8 +3648,25 @@
       <c r="F3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="H3">
+        <v>801.35629453681702</v>
+      </c>
+      <c r="I3">
+        <v>372.983372921615</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3658,8 +3685,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3678,8 +3716,19 @@
       <c r="F5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3698,8 +3747,25 @@
       <c r="F6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="H6">
+        <v>761.21920668058397</v>
+      </c>
+      <c r="I6">
+        <v>462.53862212943602</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3718,8 +3784,25 @@
       <c r="F7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="H7">
+        <v>716.07349081364805</v>
+      </c>
+      <c r="I7">
+        <v>481.501312335958</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3738,8 +3821,19 @@
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3758,8 +3852,19 @@
       <c r="F9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3778,8 +3883,19 @@
       <c r="F10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -3798,8 +3914,19 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3818,8 +3945,25 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="H12">
+        <v>839.85314685314597</v>
+      </c>
+      <c r="I12">
+        <v>520.22610722610705</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3838,8 +3982,25 @@
       <c r="F13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="H13">
+        <v>870.04878048780404</v>
+      </c>
+      <c r="I13">
+        <v>520</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3858,8 +4019,19 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -3878,8 +4050,19 @@
       <c r="F15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4081,25 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="H16">
+        <v>694.34429824561403</v>
+      </c>
+      <c r="I16">
+        <v>448.50877192982398</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3918,8 +4118,25 @@
       <c r="F17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="H17">
+        <v>599.66371681415899</v>
+      </c>
+      <c r="I17">
+        <v>404.23230088495501</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -3940,10 +4157,17 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4186,19 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3983,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -4003,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -4022,8 +4257,14 @@
       <c r="F22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="H22">
+        <v>769.28923766816104</v>
+      </c>
+      <c r="I22">
+        <v>443.825112107623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -4042,8 +4283,14 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="H23">
+        <v>803.93595041322305</v>
+      </c>
+      <c r="I23">
+        <v>392.06611570247901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -4063,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4083,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -4102,8 +4349,14 @@
       <c r="F26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="H26">
+        <v>912.66801619433204</v>
+      </c>
+      <c r="I26">
+        <v>686.59716599190199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -4123,7 +4376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -4143,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -4163,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -4183,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -4203,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -4222,8 +4475,14 @@
       <c r="F32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32">
+        <v>711.98876404494297</v>
+      </c>
+      <c r="I32">
+        <v>445.40449438202199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -4243,7 +4502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -4263,7 +4522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -4283,7 +4542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -4302,8 +4561,14 @@
       <c r="F36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36">
+        <v>642.20428015564198</v>
+      </c>
+      <c r="I36">
+        <v>416.97859922178901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -4323,7 +4588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -4343,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -4363,7 +4628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -4383,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -4403,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -4422,8 +4687,14 @@
       <c r="F42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42">
+        <v>726.938016528925</v>
+      </c>
+      <c r="I42">
+        <v>524.38223140495802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -4443,7 +4714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -4463,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -4483,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -4502,8 +4773,14 @@
       <c r="F46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46">
+        <v>1039.8861283643801</v>
+      </c>
+      <c r="I46">
+        <v>618.79296066252505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -4523,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -4543,7 +4820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -4563,7 +4840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -4583,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -4603,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -4622,8 +4899,14 @@
       <c r="F52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52">
+        <v>877.10403397027596</v>
+      </c>
+      <c r="I52">
+        <v>710.92781316348101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4643,7 +4926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -4663,7 +4946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -4683,7 +4966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -4702,8 +4985,14 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56">
+        <v>913.54101995565395</v>
+      </c>
+      <c r="I56">
+        <v>602.55654101995503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -4723,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -4743,7 +5032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -4763,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -4783,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -4803,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -4822,8 +5111,14 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62">
+        <v>849.25779625779603</v>
+      </c>
+      <c r="I62">
+        <v>295.30145530145501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>194</v>
       </c>
@@ -4843,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -4863,7 +5158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>200</v>
       </c>
@@ -4883,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -4902,8 +5197,14 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66">
+        <v>1038.1628440366901</v>
+      </c>
+      <c r="I66">
+        <v>442.61467889908198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>206</v>
       </c>
@@ -4923,7 +5224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>209</v>
       </c>
@@ -4943,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -4963,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -4983,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -5002,8 +5303,14 @@
       <c r="F71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71">
+        <v>801.43487394957901</v>
+      </c>
+      <c r="I71">
+        <v>495.13865546218398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -5023,7 +5330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>225</v>
       </c>
@@ -5043,7 +5350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -5063,7 +5370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -5083,7 +5390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>234</v>
       </c>
@@ -5103,7 +5410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -5123,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -5143,7 +5450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -5163,7 +5470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>246</v>
       </c>
